--- a/Documents/Designs/TA API.xlsx
+++ b/Documents/Designs/TA API.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="160">
   <si>
     <t>API Name</t>
   </si>
@@ -52,45 +52,16 @@
     <t>Explanation</t>
   </si>
   <si>
-    <t>networkId</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>รหัสสายทาง 31 = ดอนเมืองโทลเวย์</t>
-  </si>
-  <si>
-    <t>plazaId</t>
-  </si>
-  <si>
-    <t>รหัสด่าน</t>
-  </si>
-  <si>
-    <t>staffId</t>
-  </si>
-  <si>
     <t>รหัสพนักงาน</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>สถานะ login
-- success
-- fail</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>รายละเอียดกรณี login fail
-- invalid staff id
-- invalid password
-- password expires</t>
   </si>
   <si>
     <t>JSON OUTPUT</t>
@@ -260,6 +231,384 @@
   "failed": false
 }</t>
   </si>
+  <si>
+    <t>TSBShiftId</t>
+  </si>
+  <si>
+    <t>PKId</t>
+  </si>
+  <si>
+    <t>EntryDate</t>
+  </si>
+  <si>
+    <t>วันที่ทำงาน</t>
+  </si>
+  <si>
+    <t>RevenueDate</t>
+  </si>
+  <si>
+    <t>วันที่ป้อนข้อมูล</t>
+  </si>
+  <si>
+    <t>RevenueId</t>
+  </si>
+  <si>
+    <t>BagNo</t>
+  </si>
+  <si>
+    <t>เลขที่ถุงเงิน</t>
+  </si>
+  <si>
+    <t>BeltNo</t>
+  </si>
+  <si>
+    <t>เลขที่สายรัด</t>
+  </si>
+  <si>
+    <t>IsHistorical</t>
+  </si>
+  <si>
+    <t>ป้อนย้อนหลังหรือปกติ , false = ปกติ , true = ป้อนย้อนหลัง</t>
+  </si>
+  <si>
+    <t>Lanes</t>
+  </si>
+  <si>
+    <t>เลนที่เข้าทำงาน</t>
+  </si>
+  <si>
+    <t>PlazaNames</t>
+  </si>
+  <si>
+    <t>ShiftBegin</t>
+  </si>
+  <si>
+    <t>เวลาที่หัวหน้าเปิดกะ</t>
+  </si>
+  <si>
+    <t>ShiftEnd</t>
+  </si>
+  <si>
+    <t>เวลาที่หัวหน้าปิดกะ</t>
+  </si>
+  <si>
+    <t>TSBId</t>
+  </si>
+  <si>
+    <t>TSBNameEN</t>
+  </si>
+  <si>
+    <t>ชื่อด่านภาษาอังกฤษ = ANUSORN SATHAN</t>
+  </si>
+  <si>
+    <t>เลขด่าน = 09</t>
+  </si>
+  <si>
+    <t>TSBNameTH</t>
+  </si>
+  <si>
+    <t>ชื่อด่านภาษาไทย = อนุสรณ์สถาน</t>
+  </si>
+  <si>
+    <t>PlazaGroupId</t>
+  </si>
+  <si>
+    <t>รหัส = AS</t>
+  </si>
+  <si>
+    <t>PlazaGroupNameEN</t>
+  </si>
+  <si>
+    <t>PlazaGroupNameTH</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>ShiftId</t>
+  </si>
+  <si>
+    <t>ShiftNameEN</t>
+  </si>
+  <si>
+    <t>ShiftNameTH</t>
+  </si>
+  <si>
+    <t>รหัสกะ 1,2,3</t>
+  </si>
+  <si>
+    <t>ชื่อกะภาษาอังกฤษ = Morning</t>
+  </si>
+  <si>
+    <t>ชื่อกะภาษาไทย = เช้า</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>CollectorNameEN</t>
+  </si>
+  <si>
+    <t>ชื่อพนักงานภาษาอังกฤษ</t>
+  </si>
+  <si>
+    <t>CollectorNameTH</t>
+  </si>
+  <si>
+    <t>ชื่อพนักงานภาษาไทย</t>
+  </si>
+  <si>
+    <t>SupervisorId</t>
+  </si>
+  <si>
+    <t>รหัสหัวหน้า</t>
+  </si>
+  <si>
+    <t>SupervisorNameEN</t>
+  </si>
+  <si>
+    <t>SupervisorNameTH</t>
+  </si>
+  <si>
+    <t>ชื่อหัวหน้าภาษาอังกฤษ</t>
+  </si>
+  <si>
+    <t>ชื่อหัวหน้าภาษาไทย</t>
+  </si>
+  <si>
+    <t>TrafficST25</t>
+  </si>
+  <si>
+    <t>TrafficST50</t>
+  </si>
+  <si>
+    <t>TrafficBHT1</t>
+  </si>
+  <si>
+    <t>TrafficBHT2</t>
+  </si>
+  <si>
+    <t>TrafficBHT5</t>
+  </si>
+  <si>
+    <t>TrafficBHT10</t>
+  </si>
+  <si>
+    <t>TrafficBHT20</t>
+  </si>
+  <si>
+    <t>TrafficBHT50</t>
+  </si>
+  <si>
+    <t>TrafficBHT100</t>
+  </si>
+  <si>
+    <t>TrafficBHT500</t>
+  </si>
+  <si>
+    <t>TrafficBHT1000</t>
+  </si>
+  <si>
+    <t>TrafficBHTTotal</t>
+  </si>
+  <si>
+    <t>TrafficRemark</t>
+  </si>
+  <si>
+    <t>หมายเหตุ</t>
+  </si>
+  <si>
+    <t>จำนวนเหรียญ 50 สตางค์ ไม่ได้ใช้งาน = 0</t>
+  </si>
+  <si>
+    <t>จำนวนเหรียญ 25 สตางค์ ไม่ได้ใช้งาน = 0</t>
+  </si>
+  <si>
+    <t>จำนวนเหรียญ 1 บาท</t>
+  </si>
+  <si>
+    <t>จำนวนเหรียญ 2 บาท</t>
+  </si>
+  <si>
+    <t>จำนวนเหรียญ 5 บาท</t>
+  </si>
+  <si>
+    <t>จำนวนเหรียญ 10 บาท</t>
+  </si>
+  <si>
+    <t>จำนวนธนบัตร 20 บาท</t>
+  </si>
+  <si>
+    <t>จำนวนธนบัตร 50 บาท</t>
+  </si>
+  <si>
+    <t>จำนวนธนบัตร 100 บาท</t>
+  </si>
+  <si>
+    <t>จำนวนธนบัตร 500 บาท</t>
+  </si>
+  <si>
+    <t>จำนวนธนบัตร 1000 บาท</t>
+  </si>
+  <si>
+    <t>จำนวนยอดรวมทั้งหมด</t>
+  </si>
+  <si>
+    <t>NonRevenueBHTTotal</t>
+  </si>
+  <si>
+    <t>OtherBHTTotal</t>
+  </si>
+  <si>
+    <t>ยอดรายได้อื่นๆ</t>
+  </si>
+  <si>
+    <t>OtherRemark</t>
+  </si>
+  <si>
+    <t>หมายเหตุ รายได้อื่นๆ</t>
+  </si>
+  <si>
+    <t>ยอดเงินรับฝาก</t>
+  </si>
+  <si>
+    <t>NonRevenueRemark</t>
+  </si>
+  <si>
+    <t>หมายเหตุ เงินรับฝาก</t>
+  </si>
+  <si>
+    <t>CouponUsageBHT30</t>
+  </si>
+  <si>
+    <t>CouponUsageBHT35</t>
+  </si>
+  <si>
+    <t>CouponUsageBHT60</t>
+  </si>
+  <si>
+    <t>CouponUsageBHT70</t>
+  </si>
+  <si>
+    <t>CouponUsageBHT80</t>
+  </si>
+  <si>
+    <t>FreePassUsageClassA</t>
+  </si>
+  <si>
+    <t>จำนวนบัตร DTM (ป1)</t>
+  </si>
+  <si>
+    <t>FreePassUsageOther</t>
+  </si>
+  <si>
+    <t>จำนวนบัตร DTM (ป2)</t>
+  </si>
+  <si>
+    <t>CouponSoldBHT35</t>
+  </si>
+  <si>
+    <t>CouponSoldBHT80</t>
+  </si>
+  <si>
+    <t>จำนวนเล่มการขายคูปอง 80 บาท</t>
+  </si>
+  <si>
+    <t>จำนวนเล่มการขายคูปอง 35 บาท</t>
+  </si>
+  <si>
+    <t>จำนวนฉบับการใช้คูปองราคา 30 บาท</t>
+  </si>
+  <si>
+    <t>จำนวนฉบับการใช้คูปองราคา 35 บาท</t>
+  </si>
+  <si>
+    <t>จำนวนฉบับการใช้คูปองราคา 60 บาท</t>
+  </si>
+  <si>
+    <t>จำนวนฉบับการใช้คูปองราคา 70 บาท</t>
+  </si>
+  <si>
+    <t>จำนวนฉบับการใช้คูปองราคา 80 บาท</t>
+  </si>
+  <si>
+    <t>CouponSoldBHT35Factor</t>
+  </si>
+  <si>
+    <t>CouponSoldBHT80Factor</t>
+  </si>
+  <si>
+    <t>ยอดบาท การขายคูปอง 35 บาท</t>
+  </si>
+  <si>
+    <t>ยอดบาท การขายคูปอง 80 บาท</t>
+  </si>
+  <si>
+    <t>CouponSoldBHT35Total</t>
+  </si>
+  <si>
+    <t>CouponSoldBHT80Total</t>
+  </si>
+  <si>
+    <t>CouponSoldBHTTotal</t>
+  </si>
+  <si>
+    <t>ยอดรวมขายคูปอง ไม่ได้ใช้ = 0</t>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+  </si>
+  <si>
+    <t>ToTAServer</t>
+  </si>
+  <si>
+    <t>FullNameEN</t>
+  </si>
+  <si>
+    <t>FullNameTH</t>
+  </si>
+  <si>
+    <t>Begin</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>ยังไม่ได้ใช้ = Null</t>
+  </si>
+  <si>
+    <t>UserShiftId</t>
+  </si>
+  <si>
+    <t>Auto generate Id</t>
+  </si>
+  <si>
+    <t>Auto generate running number</t>
+  </si>
+  <si>
+    <t>เวลาที่หัวหน้าปิดกะ (null หากยังเปิดกะอยู่)</t>
+  </si>
+  <si>
+    <t>reserved</t>
+  </si>
+  <si>
+    <t>วันที่เวลาที่เปิดกะ</t>
+  </si>
+  <si>
+    <t>วันที่เวลาที่ปิดกะ (null หากยังไม่ปิดกะ)</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>data.timeStamp</t>
+  </si>
+  <si>
+    <t>วันเวลาปัจจุบันของเครื่อง</t>
+  </si>
+  <si>
+    <t>true กรณีมี error, false กรณีทำงานได้ปรกติ</t>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -538,11 +887,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,6 +925,18 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,17 +982,38 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,16 +1309,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="82.21875" customWidth="1"/>
+    <col min="2" max="2" width="82.33203125" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
   </cols>
   <sheetData>
@@ -931,56 +1326,56 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="25.35" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="11" t="s">
-        <v>31</v>
+      <c r="A6" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -993,171 +1388,843 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="12"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="29" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A34" s="16"/>
+      <c r="B34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A35" s="16"/>
+      <c r="B35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A36" s="16"/>
+      <c r="B36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A37" s="16"/>
+      <c r="B37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A38" s="16"/>
+      <c r="B38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A39" s="16"/>
+      <c r="B39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A40" s="16"/>
+      <c r="B40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A41" s="16"/>
+      <c r="B41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A42" s="16"/>
+      <c r="B42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A43" s="16"/>
+      <c r="B43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A44" s="16"/>
+      <c r="B44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A45" s="16"/>
+      <c r="B45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A46" s="16"/>
+      <c r="B46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A47" s="16"/>
+      <c r="B47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A48" s="16"/>
+      <c r="B48" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A49" s="16"/>
+      <c r="B49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A50" s="16"/>
+      <c r="B50" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A51" s="16"/>
+      <c r="B51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A52" s="16"/>
+      <c r="B52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A53" s="16"/>
+      <c r="B53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A54" s="16"/>
+      <c r="B54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A55" s="16"/>
+      <c r="B55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A56" s="16"/>
+      <c r="B56" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A57" s="16"/>
+      <c r="B57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A58" s="16"/>
+      <c r="B58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A59" s="16"/>
+      <c r="B59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A60" s="16"/>
+      <c r="B60" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A61" s="16"/>
+      <c r="B61" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A62" s="16"/>
+      <c r="B62" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A63" s="16"/>
+      <c r="B63" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A64" s="16"/>
+      <c r="B64" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="2" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A65" s="16"/>
+      <c r="B65" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="3" t="s">
+      <c r="C65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A66" s="16"/>
+      <c r="B66" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="D66" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A67" s="16"/>
+      <c r="B67" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A68" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="3" t="s">
+      <c r="B68" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="51" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" s="2" customFormat="1" ht="25.35" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A69" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="18"/>
+    </row>
+    <row r="70" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1">
+      <c r="A70" s="16"/>
+      <c r="B70" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A71" s="16"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="23"/>
+    </row>
+    <row r="72" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A72" s="16"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23"/>
+    </row>
+    <row r="73" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A73" s="16"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="23"/>
+    </row>
+    <row r="74" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickBot="1">
+      <c r="A74" s="16"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1">
+      <c r="A75" s="16"/>
+      <c r="B75" s="26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="69" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="3" t="s">
+      <c r="C75" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="25.35" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickBot="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickBot="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickTop="1"/>
+      <c r="D75" s="21"/>
+    </row>
+    <row r="76" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A76" s="16"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="23"/>
+    </row>
+    <row r="77" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A77" s="16"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="23"/>
+    </row>
+    <row r="78" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A78" s="16"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="23"/>
+    </row>
+    <row r="79" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickBot="1">
+      <c r="A79" s="16"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A79"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C70:D74"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="C75:D79"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A6:A67"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1166,16 +2233,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="82.21875" customWidth="1"/>
+    <col min="2" max="2" width="82.33203125" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1183,56 +2250,56 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="25.35" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="11" t="s">
-        <v>34</v>
+      <c r="A6" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -1245,171 +2312,267 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="12"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="12"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="3" t="s">
+      <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="51" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" ht="25.35" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickBot="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="69" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="3" t="s">
+      <c r="C27" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="25.35" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickBot="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickBot="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickTop="1"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickBot="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:D26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:D31"/>
+    <mergeCell ref="A6:A19"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1417,16 +2580,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="82.21875" customWidth="1"/>
+    <col min="2" max="2" width="82.33203125" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1434,56 +2597,56 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="25.35" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="11" t="s">
-        <v>37</v>
+      <c r="A6" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -1496,171 +2659,267 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="12"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="12"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="3" t="s">
+      <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="51" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" ht="25.35" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickBot="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="69" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="3" t="s">
+      <c r="C27" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="25.35" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickBot="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickBot="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickTop="1"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickBot="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:D26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:D31"/>
+    <mergeCell ref="A6:A19"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1668,16 +2927,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="82.21875" customWidth="1"/>
+    <col min="2" max="2" width="82.33203125" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1685,55 +2944,57 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+        <v>30</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="25.35" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="11"/>
+      <c r="A6" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1745,141 +3006,126 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="12"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="12"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="12"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="51" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="12"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="69" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="12"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="25.35" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="11" t="s">
-        <v>40</v>
+      <c r="A13" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickBot="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickBot="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickTop="1"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="25.35" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickTop="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="25.65" customHeight="1" thickBot="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:D18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
